--- a/US/data/BOC/FTD/FTDE/ASRVEXBOP_A_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/ASRVEXBOP_A_historical.xlsx
@@ -527,10 +527,10 @@
         <v>27698</v>
       </c>
       <c r="W2" t="n">
-        <v>13278</v>
+        <v>13196</v>
       </c>
       <c r="X2" t="n">
-        <v>12048</v>
+        <v>12526</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -616,10 +616,10 @@
         <v>91017</v>
       </c>
       <c r="W3" t="n">
-        <v>56706</v>
+        <v>57168</v>
       </c>
       <c r="X3" t="n">
-        <v>65044</v>
+        <v>65777</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
         <v>199364</v>
       </c>
       <c r="W4" t="n">
-        <v>72813</v>
+        <v>72481</v>
       </c>
       <c r="X4" t="n">
-        <v>68759</v>
+        <v>70214</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         <v>3127</v>
       </c>
       <c r="W5" t="n">
-        <v>2349</v>
+        <v>2395</v>
       </c>
       <c r="X5" t="n">
-        <v>2797</v>
+        <v>3129</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -883,10 +883,10 @@
         <v>18528</v>
       </c>
       <c r="W6" t="n">
-        <v>20431</v>
+        <v>20277</v>
       </c>
       <c r="X6" t="n">
-        <v>22672</v>
+        <v>22741</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>136046</v>
       </c>
       <c r="W7" t="n">
-        <v>144343</v>
+        <v>151033</v>
       </c>
       <c r="X7" t="n">
-        <v>164088</v>
+        <v>171740</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
         <v>115529</v>
       </c>
       <c r="W8" t="n">
-        <v>113779</v>
+        <v>115558</v>
       </c>
       <c r="X8" t="n">
-        <v>124827</v>
+        <v>124613</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         <v>54766</v>
       </c>
       <c r="W9" t="n">
-        <v>56682</v>
+        <v>56456</v>
       </c>
       <c r="X9" t="n">
-        <v>58142</v>
+        <v>59797</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>185573</v>
       </c>
       <c r="W10" t="n">
-        <v>183180</v>
+        <v>195046</v>
       </c>
       <c r="X10" t="n">
-        <v>206542</v>
+        <v>217426</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         <v>22193</v>
       </c>
       <c r="W11" t="n">
-        <v>20442</v>
+        <v>20820</v>
       </c>
       <c r="X11" t="n">
-        <v>22965</v>
+        <v>23915</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
@@ -1417,10 +1417,10 @@
         <v>22453</v>
       </c>
       <c r="W12" t="n">
-        <v>21642</v>
+        <v>22003</v>
       </c>
       <c r="X12" t="n">
-        <v>23364</v>
+        <v>23394</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
